--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1185165.126784384</v>
+        <v>1187407.946961178</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6308589.900108531</v>
+        <v>6308589.90010853</v>
       </c>
     </row>
     <row r="11">
@@ -665,22 +665,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>37.14313633741891</v>
       </c>
       <c r="F2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>35.18454619735122</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
+        <v>46.38724422570589</v>
+      </c>
+      <c r="T3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,55 +832,55 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.170977004479167</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="J4" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,25 +899,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>81.00537765493296</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>106.8110878221261</v>
+        <v>135.4320983106454</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -990,7 +990,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1093,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>72.47049842454879</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>186.9919489137622</v>
       </c>
     </row>
     <row r="9">
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>30.9518491405796</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>51.86683734433478</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,31 +1367,31 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>230.8744955960827</v>
+      </c>
+      <c r="G11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>131.0193938670496</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1.944519418634053</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1613,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F14" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1628,7 +1628,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1683,31 +1683,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>21.7973599200313</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>90.0851035971169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
@@ -1862,10 +1862,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1977,10 +1977,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>38.7380867191111</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>147.2379120664689</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2041,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,73 +2081,73 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>230.8744955960827</v>
-      </c>
-      <c r="I20" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,31 +2157,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120.1832748619387</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>23.21039812525965</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2318,10 +2318,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>152.2104725609273</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>174.6530184069498</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,70 +2555,70 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>12.90925672556489</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,61 +2710,61 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2795,59 +2795,59 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>81.0053776549329</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>87.90076001886953</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -2889,7 +2889,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>49.32998539960097</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2928,10 +2928,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,76 +3026,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U32" t="n">
-        <v>9.234466016111892</v>
-      </c>
-      <c r="V32" t="n">
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,25 +3108,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>92.40361448301439</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3168,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>84.56713651463427</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3184,64 +3184,64 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,68 +3263,68 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>145.5147652547677</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3357,16 +3357,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>46.77311179206508</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>183.8842973311964</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,16 +3831,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>218.7207027570939</v>
       </c>
       <c r="V42" t="n">
-        <v>32.53272969201343</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>202.2946864288972</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4065,19 +4065,19 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>77.91341150344051</v>
+        <v>115.416368462878</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.9970564337892</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="C2" t="n">
-        <v>159.9970564337892</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="D2" t="n">
-        <v>159.9970564337892</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="E2" t="n">
-        <v>159.9970564337892</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="F2" t="n">
-        <v>105.9439968277793</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="G2" t="n">
-        <v>70.40405117388919</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H2" t="n">
-        <v>70.40405117388919</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4337,43 +4337,43 @@
         <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>159.9970564337892</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="V2" t="n">
-        <v>159.9970564337892</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="W2" t="n">
-        <v>159.9970564337892</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="X2" t="n">
-        <v>159.9970564337892</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="Y2" t="n">
-        <v>159.9970564337892</v>
+        <v>203.9585006715719</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.9970564337892</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="C3" t="n">
-        <v>159.9970564337892</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="D3" t="n">
-        <v>159.9970564337892</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="E3" t="n">
-        <v>159.9970564337892</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>105.9439968277793</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4413,46 +4413,46 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
+        <v>57.25840604064623</v>
+      </c>
+      <c r="M3" t="n">
         <v>108.0953086000985</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>161.0727123199487</v>
       </c>
-      <c r="N3" t="n">
-        <v>214.050116039799</v>
-      </c>
       <c r="O3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="T3" t="n">
-        <v>159.9970564337892</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="U3" t="n">
-        <v>159.9970564337892</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="V3" t="n">
-        <v>159.9970564337892</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="W3" t="n">
-        <v>159.9970564337892</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="X3" t="n">
-        <v>159.9970564337892</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="Y3" t="n">
-        <v>159.9970564337892</v>
+        <v>5.035134973581694</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0643627756056</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>134.8815577205762</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4504,34 +4504,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0643627756056</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0643627756056</v>
+        <v>84.76023320505688</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F5" t="n">
-        <v>233.7108255783361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4589,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C6" t="n">
-        <v>612.718391167419</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D6" t="n">
-        <v>463.7839815061678</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E6" t="n">
-        <v>304.5465265007123</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
         <v>19.28114311021272</v>
@@ -4653,10 +4653,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.4512093066566</v>
+        <v>521.6360070197613</v>
       </c>
       <c r="C8" t="n">
-        <v>591.4512093066566</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="D8" t="n">
-        <v>518.2486856454962</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="E8" t="n">
-        <v>518.2486856454962</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.4512093066566</v>
+        <v>521.6360070197613</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>65.60123993063803</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
         <v>304.2053859195205</v>
@@ -4914,19 +4914,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>227.7955745279523</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W9" t="n">
-        <v>227.7955745279523</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5075,16 +5075,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>342.668582052591</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5133,10 +5133,10 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5145,25 +5145,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="W12" t="n">
-        <v>720.6083788665362</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X12" t="n">
-        <v>718.6442178376129</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y12" t="n">
-        <v>510.883919072659</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="13">
@@ -5261,19 +5261,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>502.6601697108322</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="C15" t="n">
-        <v>328.2071404297052</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="D15" t="n">
-        <v>179.2727307684539</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E15" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F15" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,46 +5361,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>761.8705608694022</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="U15" t="n">
-        <v>761.8705608694022</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="V15" t="n">
-        <v>761.8705608694022</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="W15" t="n">
-        <v>761.8705608694022</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="X15" t="n">
-        <v>761.8705608694022</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="Y15" t="n">
-        <v>670.8755067309003</v>
+        <v>667.4527462414319</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J16" t="n">
         <v>41.77557929797318</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="17">
@@ -5498,19 +5498,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>279.9389693285341</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C18" t="n">
-        <v>279.9389693285341</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D18" t="n">
-        <v>279.9389693285341</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E18" t="n">
-        <v>279.9389693285341</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F18" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G18" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5598,13 +5598,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5625,19 +5625,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>448.1543063486022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>448.1543063486022</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W18" t="n">
-        <v>448.1543063486022</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X18" t="n">
-        <v>448.1543063486022</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y18" t="n">
-        <v>448.1543063486022</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="19">
@@ -5689,22 +5689,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C20" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D20" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E20" t="n">
-        <v>720.6083788665362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F20" t="n">
-        <v>720.6083788665362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G20" t="n">
-        <v>477.1596022224361</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>842.6599081753446</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C21" t="n">
-        <v>668.2068788942177</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,13 +5835,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>376.0670529769968</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6017,22 +6017,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>473.9875657500345</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C24" t="n">
-        <v>473.9875657500345</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D24" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6075,10 +6075,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>709.1396739817772</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>709.1396739817772</v>
+        <v>787.6399652005859</v>
       </c>
       <c r="U24" t="n">
-        <v>709.1396739817772</v>
+        <v>787.6399652005859</v>
       </c>
       <c r="V24" t="n">
-        <v>473.9875657500345</v>
+        <v>787.6399652005859</v>
       </c>
       <c r="W24" t="n">
-        <v>473.9875657500345</v>
+        <v>544.1911885564859</v>
       </c>
       <c r="X24" t="n">
-        <v>473.9875657500345</v>
+        <v>544.1911885564859</v>
       </c>
       <c r="Y24" t="n">
-        <v>473.9875657500345</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6257,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>521.2549444941228</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C27" t="n">
-        <v>521.2549444941228</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D27" t="n">
-        <v>521.2549444941228</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E27" t="n">
-        <v>508.2152912359765</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>689.4702815141908</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="28">
@@ -6412,22 +6412,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>627.7355178317791</v>
+        <v>451.2235123993538</v>
       </c>
       <c r="C30" t="n">
-        <v>627.7355178317791</v>
+        <v>451.2235123993538</v>
       </c>
       <c r="D30" t="n">
-        <v>627.7355178317791</v>
+        <v>451.2235123993538</v>
       </c>
       <c r="E30" t="n">
-        <v>468.4980628263236</v>
+        <v>451.2235123993538</v>
       </c>
       <c r="F30" t="n">
-        <v>321.9635048532086</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G30" t="n">
-        <v>183.2326794358241</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>69.86354384340346</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6546,10 +6546,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6576,16 +6576,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>627.7355178317791</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X30" t="n">
-        <v>627.7355178317791</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y30" t="n">
-        <v>627.7355178317791</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D32" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X32" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>502.6601697108322</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="C33" t="n">
-        <v>328.2071404297052</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="D33" t="n">
-        <v>179.2727307684539</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>203.6718892321191</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>203.6718892321191</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6783,10 +6783,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6807,22 +6807,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X33" t="n">
-        <v>878.6358054958541</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y33" t="n">
-        <v>670.8755067309003</v>
+        <v>518.4217842253022</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>158.0119685275972</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="C36" t="n">
-        <v>158.0119685275972</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="D36" t="n">
-        <v>158.0119685275972</v>
+        <v>270.949607964995</v>
       </c>
       <c r="E36" t="n">
-        <v>158.0119685275972</v>
+        <v>270.949607964995</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>270.949607964995</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7026,40 +7026,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>419.8840176262463</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U38" t="n">
-        <v>710.516763498309</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V38" t="n">
-        <v>467.067986854209</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W38" t="n">
-        <v>467.067986854209</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X38" t="n">
-        <v>467.067986854209</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y38" t="n">
-        <v>467.067986854209</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>194.4883050441255</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>778.3154410346802</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V39" t="n">
-        <v>778.3154410346802</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="W39" t="n">
-        <v>778.3154410346802</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X39" t="n">
-        <v>570.4639408291474</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y39" t="n">
-        <v>362.7036420641935</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="40">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X41" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>272.1352367728036</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7494,19 +7494,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="V42" t="n">
-        <v>931.1958123873903</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="W42" t="n">
-        <v>687.7470357432903</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X42" t="n">
-        <v>479.8955355377576</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y42" t="n">
-        <v>272.1352367728036</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="43">
@@ -7591,25 +7591,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
         <v>19.28114311021272</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
         <v>262.7299197543128</v>
@@ -7667,22 +7667,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
         <v>749.627473042513</v>
@@ -7691,7 +7691,7 @@
         <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>385.8037236438013</v>
+        <v>486.820788837921</v>
       </c>
       <c r="C45" t="n">
-        <v>211.3506943626743</v>
+        <v>486.820788837921</v>
       </c>
       <c r="D45" t="n">
-        <v>211.3506943626743</v>
+        <v>486.820788837921</v>
       </c>
       <c r="E45" t="n">
-        <v>211.3506943626743</v>
+        <v>486.820788837921</v>
       </c>
       <c r="F45" t="n">
-        <v>211.3506943626743</v>
+        <v>340.286230864806</v>
       </c>
       <c r="G45" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7734,13 +7734,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0584510084244</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7749,28 +7749,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X45" t="n">
-        <v>554.0190606638694</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y45" t="n">
-        <v>554.0190606638694</v>
+        <v>655.0361258579891</v>
       </c>
     </row>
     <row r="46">
@@ -7834,7 +7834,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
         <v>19.28114311021272</v>
@@ -7985,16 +7985,16 @@
         <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>281.6966398529821</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,10 +8061,10 @@
         <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>189.9047864055835</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
         <v>184.8542410932831</v>
@@ -8076,7 +8076,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133072</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>184.6294155606472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8781,13 +8781,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>255.9771075721939</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,22 +9009,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,16 +9246,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9483,16 +9483,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M27" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10194,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10674,7 +10674,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2508595994748</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10683,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11142,13 +11142,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11382,16 +11382,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,13 +23334,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23358,7 +23358,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,25 +23385,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>101.7811932823757</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>203.8284657848434</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23501,10 +23501,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F14" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23516,7 +23516,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23571,31 +23571,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,13 +23619,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>178.3673687747903</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>115.5975921801875</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,7 +23738,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
@@ -23750,10 +23750,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23808,7 +23808,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23820,16 +23820,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23865,10 +23865,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>187.2032953618637</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23929,13 +23929,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,28 +23969,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>108.6003065196844</v>
+        <v>277.0585344134748</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,31 +24045,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>46.34990878792868</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24102,16 +24102,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>228.48458503566</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24206,10 +24206,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>145.0597660285826</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,7 +24221,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24257,7 +24257,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,10 +24266,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,10 +24291,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>19.47269854291054</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>25.51171028787184</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24412,7 +24412,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,28 +24443,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24497,16 +24497,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,22 +24528,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>144.7358237298361</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>116.0167947547591</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24652,7 +24652,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24683,7 +24683,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,13 +24695,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>258.4694244608343</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,16 +24725,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,10 +24765,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>57.16845237451435</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24777,7 +24777,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>40.06664745181411</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24816,10 +24816,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24862,7 +24862,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>117.0281136687963</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,7 +24929,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,31 +24959,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>242.1111868917246</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,25 +24996,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>19.83182975348207</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25047,7 +25047,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25056,13 +25056,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>121.2058486888432</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25199,19 +25199,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,13 +25230,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.01841839509962</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25245,16 +25245,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>90.57040537114555</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,16 +25290,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25360,7 +25360,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25409,7 +25409,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,10 +25433,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>148.0596218681135</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25445,7 +25445,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>42.05708474977843</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>168.1279498935992</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25640,7 +25640,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25673,28 +25673,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,16 +25719,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,22 +25755,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>7.220679323880944</v>
       </c>
       <c r="V42" t="n">
-        <v>200.2678574574118</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,10 +25871,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>146.9462822885158</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25944,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25953,19 +25953,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>59.43010565977012</v>
+        <v>21.92714870033267</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26074,10 +26074,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>415818.495943834</v>
+        <v>415818.4959438337</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>415818.4959438338</v>
+        <v>415818.495943834</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415818.4959438338</v>
+        <v>415818.4959438337</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>415818.495943834</v>
+        <v>415818.4959438338</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>415818.495943834</v>
+        <v>415818.4959438338</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583914</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>554203.1946583913</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
         <v>224316.9079172987</v>
@@ -26326,25 +26326,25 @@
         <v>224316.9079172987</v>
       </c>
       <c r="G2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="H2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="I2" t="n">
         <v>224316.9079172987</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="K2" t="n">
         <v>224316.9079172987</v>
       </c>
-      <c r="I2" t="n">
-        <v>224316.9079172986</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>224316.9079172987</v>
       </c>
-      <c r="K2" t="n">
-        <v>224316.9079172986</v>
-      </c>
-      <c r="L2" t="n">
-        <v>224316.9079172986</v>
-      </c>
       <c r="M2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="N2" t="n">
         <v>224316.9079172987</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372582.7489805099</v>
+        <v>372380.6912773507</v>
       </c>
       <c r="C4" t="n">
-        <v>337975.1359319391</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="D4" t="n">
-        <v>337975.1359319392</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="E4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="F4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="G4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="H4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="I4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="J4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="K4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="L4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="M4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="N4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="O4" t="n">
-        <v>59029.60829747977</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="P4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126806.0046546752</v>
+        <v>127008.0623578343</v>
       </c>
       <c r="C6" t="n">
-        <v>107370.4677760224</v>
+        <v>107647.4935743292</v>
       </c>
       <c r="D6" t="n">
-        <v>167946.7899626906</v>
+        <v>168223.8157609972</v>
       </c>
       <c r="E6" t="n">
-        <v>150633.6308560573</v>
+        <v>150910.656654364</v>
       </c>
       <c r="F6" t="n">
-        <v>150633.6308560573</v>
+        <v>150910.656654364</v>
       </c>
       <c r="G6" t="n">
-        <v>150633.6308560573</v>
+        <v>150910.656654364</v>
       </c>
       <c r="H6" t="n">
-        <v>150633.6308560573</v>
+        <v>150910.6566543639</v>
       </c>
       <c r="I6" t="n">
-        <v>150633.6308560572</v>
+        <v>150910.656654364</v>
       </c>
       <c r="J6" t="n">
-        <v>136632.398715778</v>
+        <v>136909.4245140846</v>
       </c>
       <c r="K6" t="n">
-        <v>102376.6779224246</v>
+        <v>102653.7037207314</v>
       </c>
       <c r="L6" t="n">
-        <v>150633.6308560572</v>
+        <v>150910.656654364</v>
       </c>
       <c r="M6" t="n">
-        <v>150633.6308560572</v>
+        <v>150910.656654364</v>
       </c>
       <c r="N6" t="n">
-        <v>150633.6308560573</v>
+        <v>150910.656654364</v>
       </c>
       <c r="O6" t="n">
-        <v>150633.6308560572</v>
+        <v>150910.656654364</v>
       </c>
       <c r="P6" t="n">
-        <v>150633.6308560572</v>
+        <v>150910.656654364</v>
       </c>
     </row>
   </sheetData>
@@ -27385,22 +27385,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>344.7872337348429</v>
       </c>
       <c r="F2" t="n">
         <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>380.1181913177838</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>285.9622731058174</v>
       </c>
       <c r="I2" t="n">
-        <v>156.9633605604562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,10 +27421,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>96.35658893119992</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27467,13 +27467,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>91.55668338343412</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>90.95627293750474</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>125.2959268781319</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>126.3194511719875</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>141.0849115331593</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,16 +27552,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.0561955029604</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173085</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,25 +27619,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>273.67766396575</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>65.89741116618968</v>
+        <v>37.27640067767032</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27755,7 +27755,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>104.3119894196452</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27813,16 +27813,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>282.2125431961342</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27865,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>199.2459897422914</v>
       </c>
     </row>
     <row r="9">
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27986,16 +27986,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>201.8487380088457</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>199.8281458165848</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -34705,16 +34705,16 @@
         <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>51.35040662570936</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,10 +34781,10 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>51.35040662570935</v>
-      </c>
-      <c r="M3" t="n">
-        <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
         <v>53.51252900994975</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,7 +34948,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35021,13 +35021,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35179,10 +35179,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>46.78797658628819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35419,10 +35419,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35501,13 +35501,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>113.3808631277494</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,22 +35729,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36203,16 +36203,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36443,13 +36443,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M27" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37151,13 +37151,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37394,7 +37394,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9091475161415</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N42" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N42" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
